--- a/src/main/java/org/example/util/download/Report.xlsx
+++ b/src/main/java/org/example/util/download/Report.xlsx
@@ -65,10 +65,10 @@
     <t>error</t>
   </si>
   <si>
-    <t>download failed - both URLs tried</t>
-  </si>
-  <si>
-    <t>Failed to download PDF: https://www.gruppoa2a.it/en/sustainability/sustainability-reports</t>
+    <t>both URLs failed</t>
+  </si>
+  <si>
+    <t>Failed to download PDF: both URLs failed</t>
   </si>
   <si>
     <t>BR50044</t>
@@ -77,7 +77,7 @@
     <t>file:/C:/Users/miller/Downloads/AA_AR2017.pdf</t>
   </si>
   <si>
-    <t>Failed to download PDF: both URLs failed</t>
+    <t>Failed to download PDF: first URL failed and no fallback</t>
   </si>
   <si>
     <t>BR50045</t>
@@ -197,8 +197,8 @@
     <col min="2" max="2" width="136.89453125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="16.3984375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="12.69140625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="32.65234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="78.87109375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="25.09375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="50.046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -415,7 +415,7 @@
         <v>9</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s" s="0">
         <v>10</v>

--- a/src/main/java/org/example/util/download/Report.xlsx
+++ b/src/main/java/org/example/util/download/Report.xlsx
@@ -62,7 +62,7 @@
     <t>Both Primary and Backup failed</t>
   </si>
   <si>
-    <t>Read timed out</t>
+    <t>Connect timed out</t>
   </si>
   <si>
     <t>BR50044</t>

--- a/src/main/java/org/example/util/download/Report.xlsx
+++ b/src/main/java/org/example/util/download/Report.xlsx
@@ -32,19 +32,55 @@
     <t>Error</t>
   </si>
   <si>
+    <t>BR50044</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>Primary URL failed, no backup</t>
+  </si>
+  <si>
+    <t>C:\Users\miller\Downloads\AA_AR2017.pdf (The system cannot find the path specified)</t>
+  </si>
+  <si>
+    <t>BR50048</t>
+  </si>
+  <si>
+    <t>http://www.aalto.fi/en/midcom-serveattachmentguid-1e725b2da56a9aa25b211e7b2d767a02c5c752a752a/sustainability_at_aalto_university_2016_fi.pdf</t>
+  </si>
+  <si>
+    <t>Primary URL</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>BR50047</t>
+  </si>
+  <si>
+    <t>http://ebooks.exakta.se/aak/2017/hallbarhetsrapport_2016_2017_en/pubData/source/aak_sustainability_report_2016_2017_ebook.pdf</t>
+  </si>
+  <si>
     <t>BR50041</t>
   </si>
   <si>
     <t>http://arpeissig.at/wp-content/uploads/2016/02/D7_NHB_ARP_Final_2.pdf</t>
   </si>
   <si>
-    <t>Primary URL</t>
-  </si>
-  <si>
-    <t>success</t>
-  </si>
-  <si>
-    <t/>
+    <t>BR50045</t>
+  </si>
+  <si>
+    <t>http://www.hkexnews.hk/listedco/listconews/SEHK/2017/0512/LTN20170512165.pdf</t>
+  </si>
+  <si>
+    <t>BR50049</t>
+  </si>
+  <si>
+    <t>HTTP error 404</t>
   </si>
   <si>
     <t>BR50042</t>
@@ -56,46 +92,10 @@
     <t>BR50043</t>
   </si>
   <si>
-    <t>error</t>
-  </si>
-  <si>
     <t>Both Primary and Backup failed</t>
   </si>
   <si>
-    <t>Connect timed out</t>
-  </si>
-  <si>
-    <t>BR50044</t>
-  </si>
-  <si>
-    <t>Primary URL failed, no backup</t>
-  </si>
-  <si>
-    <t>C:\Users\miller\Downloads\AA_AR2017.pdf (The system cannot find the path specified)</t>
-  </si>
-  <si>
-    <t>BR50045</t>
-  </si>
-  <si>
-    <t>http://www.hkexnews.hk/listedco/listconews/SEHK/2017/0512/LTN20170512165.pdf</t>
-  </si>
-  <si>
-    <t>BR50047</t>
-  </si>
-  <si>
-    <t>http://ebooks.exakta.se/aak/2017/hallbarhetsrapport_2016_2017_en/pubData/source/aak_sustainability_report_2016_2017_ebook.pdf</t>
-  </si>
-  <si>
-    <t>BR50048</t>
-  </si>
-  <si>
-    <t>http://www.aalto.fi/en/midcom-serveattachmentguid-1e725b2da56a9aa25b211e7b2d767a02c5c752a752a/sustainability_at_aalto_university_2016_fi.pdf</t>
-  </si>
-  <si>
-    <t>BR50049</t>
-  </si>
-  <si>
-    <t>HTTP error 404</t>
+    <t>Read timed out</t>
   </si>
 </sst>
 </file>
@@ -216,13 +216,13 @@
         <v>7</v>
       </c>
       <c r="C2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="E2" t="s" s="0">
         <v>9</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>10</v>
       </c>
       <c r="F2" t="s" s="0">
         <v>10</v>
@@ -236,36 +236,36 @@
         <v>12</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s" s="0">
         <v>14</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -273,96 +273,96 @@
         <v>17</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s" s="0">
         <v>14</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B6" t="s" s="0">
-        <v>21</v>
-      </c>
       <c r="C6" t="s" s="0">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s" s="0">
         <v>22</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s" s="0">
-        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="B8" t="s" s="0">
-        <v>25</v>
-      </c>
       <c r="C8" t="s" s="0">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s" s="0">
         <v>26</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>18</v>
       </c>
       <c r="F9" t="s" s="0">
         <v>27</v>
